--- a/examples/traffic/InputIncidencias.xlsx
+++ b/examples/traffic/InputIncidencias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ednaruckhaus/Documents/GitHub/Mapeathor/examples/traffic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97816ADF-9BD0-6644-B602-76E3FFB50D6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B826E0-952E-FA4D-90C2-F9DEDABE227C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2180" yWindow="540" windowWidth="30440" windowHeight="19740" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2200" yWindow="500" windowWidth="30440" windowHeight="19740" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prefixes" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,16 @@
     <sheet name="PredicateObjectMaps" sheetId="4" r:id="rId4"/>
     <sheet name="Functions" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -29,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="90">
   <si>
     <t>Prefix</t>
   </si>
@@ -100,9 +108,6 @@
     <t>OuterRef</t>
   </si>
   <si>
-    <t>iri</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -169,12 +174,6 @@
     <t>http://xmlns.com/foaf/0.1/</t>
   </si>
   <si>
-    <t>sosa:Sensor</t>
-  </si>
-  <si>
-    <t>examples/Traffic/estaciones.csv</t>
-  </si>
-  <si>
     <t>sosa</t>
   </si>
   <si>
@@ -205,9 +204,6 @@
     <t>examples/Traffic/incidencias.csv</t>
   </si>
   <si>
-    <t>examples/Traffic/insidencias.csv</t>
-  </si>
-  <si>
     <t>idTramo</t>
   </si>
   <si>
@@ -223,13 +219,7 @@
     <t>estraf:IncidenciaPlanificada</t>
   </si>
   <si>
-    <t>http://vocab.ciudadesabiertas.es/recurso/transporte/trafico/punto/{id_incidencia_nuevo}</t>
-  </si>
-  <si>
-    <t>http://vocab.ciudadesabiertas.es/recurso/transporte/trafico/incidencia-planificada/p-{id_incidencia_nuevo}</t>
-  </si>
-  <si>
-    <t>http://vocab.ciudadesabiertas.es/recurso/transporte/trafico/tramo/{id_incidencia_nuevo}</t>
+    <t>http://vocab.ciudadesabiertas.es/recurso/transporte/trafico/incidencia-planificada/{id_incidencia_nuevo}</t>
   </si>
   <si>
     <t>{id_incidencia_nuevo}</t>
@@ -265,9 +255,6 @@
     <t>estraf:tipoIncidencia</t>
   </si>
   <si>
-    <t>skos-tipo-incidenicia</t>
-  </si>
-  <si>
     <t>http://vocab.linkeddata.es/datosabiertos/kos/transporte/trafico/tipo-incidencia/</t>
   </si>
   <si>
@@ -310,7 +297,16 @@
     <t>t-{id_incidencia_nuevo}</t>
   </si>
   <si>
-    <t>isTramo</t>
+    <t>skos-tipo-incidencia</t>
+  </si>
+  <si>
+    <t>estraf:Tramo</t>
+  </si>
+  <si>
+    <t>http://vocab.ciudadesabiertas.es/recurso/transporte/trafico/punto/p-{id_incidencia_nuevo}</t>
+  </si>
+  <si>
+    <t>http://vocab.ciudadesabiertas.es/recurso/transporte/trafico/tramo/t-{id_incidencia_nuevo}</t>
   </si>
 </sst>
 </file>
@@ -362,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -378,6 +374,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -695,7 +692,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -718,7 +715,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -726,7 +723,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -734,7 +731,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -742,7 +739,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -750,7 +747,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -758,7 +755,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -766,31 +763,31 @@
         <v>8</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -798,47 +795,47 @@
         <v>9</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -852,7 +849,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -874,18 +871,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -896,18 +893,18 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -918,18 +915,18 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -948,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -972,35 +969,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1014,7 +1011,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1054,213 +1051,213 @@
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>80</v>
+        <v>71</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" t="s">
         <v>52</v>
-      </c>
-      <c r="C13" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>92</v>
-      </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G14" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1285,7 +1282,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>17</v>

--- a/examples/traffic/InputIncidencias.xlsx
+++ b/examples/traffic/InputIncidencias.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ednaruckhaus/Documents/GitHub/Mapeathor/examples/traffic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B826E0-952E-FA4D-90C2-F9DEDABE227C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6797B1BA-AF57-B84C-A8EB-38D0D5FA22FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="500" windowWidth="30440" windowHeight="19740" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="PredicateObjectMaps" sheetId="4" r:id="rId4"/>
     <sheet name="Functions" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="91">
   <si>
     <t>Prefix</t>
   </si>
@@ -285,9 +285,6 @@
     <t>estraf:incidenciaEnTramo</t>
   </si>
   <si>
-    <t>recurso-trafico:punto/t-{id_incidencia_nuevo}</t>
-  </si>
-  <si>
     <t>dct:description</t>
   </si>
   <si>
@@ -307,6 +304,12 @@
   </si>
   <si>
     <t>http://vocab.ciudadesabiertas.es/recurso/transporte/trafico/tramo/t-{id_incidencia_nuevo}</t>
+  </si>
+  <si>
+    <t>iri</t>
+  </si>
+  <si>
+    <t>recurso-trafico:tramot-{id_incidencia_nuevo}</t>
   </si>
 </sst>
 </file>
@@ -808,7 +811,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>72</v>
@@ -986,7 +989,7 @@
         <v>56</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -994,10 +997,10 @@
         <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1011,7 +1014,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1150,7 +1153,7 @@
         <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
         <v>31</v>
@@ -1170,7 +1173,7 @@
         <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="G9" t="s">
         <v>53</v>
@@ -1181,10 +1184,10 @@
         <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="G10" t="s">
         <v>53</v>
@@ -1237,7 +1240,7 @@
         <v>78</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
         <v>23</v>
@@ -1248,10 +1251,10 @@
     </row>
     <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>84</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
